--- a/Cost Comparison.xlsx
+++ b/Cost Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jl3455/Dropbox/Research/Bilevel Opt 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CD19621-BEF1-5446-AB9C-3C3E473717AB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6EC3E676-9790-C241-B74D-1DBFF97474B6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38420" yWindow="460" windowWidth="28040" windowHeight="15540" xr2:uid="{C66D5E38-E049-A343-B202-C79990462111}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>max wind</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>MG Cost</t>
+  </si>
+  <si>
+    <t>MG Load</t>
+  </si>
+  <si>
+    <t>MG Import Cost</t>
   </si>
 </sst>
 </file>
@@ -391,13 +397,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4993F1E-DE36-4745-9E3E-8C5863639460}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -415,10 +424,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>8705</v>
+        <v>8560</v>
       </c>
       <c r="C2">
-        <v>10188</v>
+        <v>6581</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -429,7 +438,29 @@
         <v>1774</v>
       </c>
       <c r="C3">
-        <v>-53.86</v>
+        <v>-3355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>140</v>
+      </c>
+      <c r="C4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2036</v>
+      </c>
+      <c r="C5">
+        <v>1084</v>
       </c>
     </row>
   </sheetData>

--- a/Cost Comparison.xlsx
+++ b/Cost Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jl3455/Dropbox/Research/Bilevel Opt 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6EC3E676-9790-C241-B74D-1DBFF97474B6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{572B5286-BDEE-AA47-8663-1B8C170D8F3E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38420" yWindow="460" windowWidth="28040" windowHeight="15540" xr2:uid="{C66D5E38-E049-A343-B202-C79990462111}"/>
+    <workbookView xWindow="38440" yWindow="460" windowWidth="28040" windowHeight="15540" xr2:uid="{C66D5E38-E049-A343-B202-C79990462111}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>max wind</t>
   </si>
@@ -46,19 +46,56 @@
   </si>
   <si>
     <t>MG Import Cost</t>
+  </si>
+  <si>
+    <t>deterministic</t>
+  </si>
+  <si>
+    <t>stochastic</t>
+  </si>
+  <si>
+    <t>rolling horizon</t>
+  </si>
+  <si>
+    <t>tcl</t>
+  </si>
+  <si>
+    <t>dl</t>
+  </si>
+  <si>
+    <t>el</t>
+  </si>
+  <si>
+    <t>6(PSO)</t>
+  </si>
+  <si>
+    <t>309/176</t>
+  </si>
+  <si>
+    <t>322/130</t>
+  </si>
+  <si>
+    <t>Traditional With Network</t>
+  </si>
+  <si>
+    <t>240/154</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,14 +115,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{94EBD92D-2B05-8B4C-9FA5-B058B8F5F7F5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,18 +436,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4993F1E-DE36-4745-9E3E-8C5863639460}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,41 +459,92 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>8560</v>
+        <v>6873</v>
       </c>
       <c r="C2">
-        <v>6581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6760</v>
+      </c>
+      <c r="D2">
+        <v>6931</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1774</v>
+        <v>-3713</v>
       </c>
       <c r="C3">
-        <v>-3355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3440</v>
+      </c>
+      <c r="D3">
+        <v>-3317</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>140</v>
-      </c>
-      <c r="C4">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -461,6 +553,73 @@
       </c>
       <c r="C5">
         <v>1084</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>11</v>
+      </c>
+      <c r="N9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="N10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>14</v>
+      </c>
+      <c r="N12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>15</v>
+      </c>
+      <c r="L13">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Cost Comparison.xlsx
+++ b/Cost Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jl3455/Dropbox/Research/Bilevel Opt 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{572B5286-BDEE-AA47-8663-1B8C170D8F3E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C5E85AA8-C9C3-E544-A94D-4165525187DB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38440" yWindow="460" windowWidth="28040" windowHeight="15540" xr2:uid="{C66D5E38-E049-A343-B202-C79990462111}"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="37520" windowHeight="23540" xr2:uid="{C66D5E38-E049-A343-B202-C79990462111}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>max wind</t>
   </si>
@@ -72,20 +72,83 @@
     <t>309/176</t>
   </si>
   <si>
-    <t>322/130</t>
-  </si>
-  <si>
     <t>Traditional With Network</t>
   </si>
   <si>
-    <t>240/154</t>
+    <t>281/107</t>
+  </si>
+  <si>
+    <t>Bilevel TS considers DS</t>
+  </si>
+  <si>
+    <t>Windup/dn</t>
+  </si>
+  <si>
+    <t>203/-67</t>
+  </si>
+  <si>
+    <t>DR price</t>
+  </si>
+  <si>
+    <t>drup</t>
+  </si>
+  <si>
+    <t>drdn</t>
+  </si>
+  <si>
+    <t>windup</t>
+  </si>
+  <si>
+    <t>273/165</t>
+  </si>
+  <si>
+    <t>winddown</t>
+  </si>
+  <si>
+    <t>DR price 1</t>
+  </si>
+  <si>
+    <t>DR price 2</t>
+  </si>
+  <si>
+    <t>drup 1</t>
+  </si>
+  <si>
+    <t>drup 2</t>
+  </si>
+  <si>
+    <t>drdn 1</t>
+  </si>
+  <si>
+    <t>drdn 2</t>
+  </si>
+  <si>
+    <t>import 1</t>
+  </si>
+  <si>
+    <t>import 2</t>
+  </si>
+  <si>
+    <t>279/126</t>
+  </si>
+  <si>
+    <t>Rup1</t>
+  </si>
+  <si>
+    <t>Rup2</t>
+  </si>
+  <si>
+    <t>Rdn1</t>
+  </si>
+  <si>
+    <t>Rdn2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -97,13 +160,26 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,8 +195,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,6 +216,1781 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total System Cost</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3596248906386702"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bilevel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Traditional</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Traditional With Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6925</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6760</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0ED1-234D-B9F0-074CE9E204F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="290002384"/>
+        <c:axId val="288275632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="290002384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288275632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="288275632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="290002384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distribution System Cost</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bilevel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Traditional</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Traditional With Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-3587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C513-A449-AB0E-BFC708FE6116}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="289238608"/>
+        <c:axId val="288920752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="289238608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288920752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="288920752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289238608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C314CEF-94A7-D941-801C-AF9AB2C2A213}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3FFF39-FBC8-C54E-81B6-BCE61DE18D97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,20 +2290,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4993F1E-DE36-4745-9E3E-8C5863639460}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="36.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
     <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" style="2" customWidth="1"/>
+    <col min="19" max="22" width="10.83203125" style="2"/>
+    <col min="25" max="25" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +2318,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -481,18 +2342,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>6873</v>
+        <v>6925</v>
       </c>
       <c r="C2">
         <v>6760</v>
       </c>
       <c r="D2">
-        <v>6931</v>
+        <v>6831</v>
+      </c>
+      <c r="E2">
+        <v>7049</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -501,18 +2365,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-3713</v>
+        <v>-3587</v>
       </c>
       <c r="C3">
         <v>-3440</v>
       </c>
       <c r="D3">
-        <v>-3317</v>
+        <v>-3367</v>
+      </c>
+      <c r="E3">
+        <v>-3602</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -524,18 +2391,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
@@ -544,7 +2414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -561,7 +2431,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
       <c r="H6">
         <v>8</v>
       </c>
@@ -569,7 +2445,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>2.66</v>
+      </c>
+      <c r="D7">
+        <v>3.52</v>
+      </c>
       <c r="J7">
         <v>9</v>
       </c>
@@ -577,7 +2462,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>63</v>
+      </c>
+      <c r="D8">
+        <v>101</v>
+      </c>
       <c r="I8">
         <v>10</v>
       </c>
@@ -585,7 +2479,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>64</v>
+      </c>
       <c r="I9">
         <v>11</v>
       </c>
@@ -593,7 +2496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="H10">
         <v>12</v>
       </c>
@@ -601,28 +2504,804 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="H11">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>2.1485027746897001</v>
+      </c>
+      <c r="C12">
+        <v>2.3817693352687401</v>
+      </c>
+      <c r="D12">
+        <v>1.7467785389645301</v>
+      </c>
+      <c r="E12">
+        <v>2.6051154284992601</v>
+      </c>
+      <c r="F12">
+        <v>2.3535588093950301</v>
+      </c>
+      <c r="G12">
+        <v>2.4162564092259702</v>
+      </c>
+      <c r="H12">
+        <v>9.2633348109834692</v>
+      </c>
+      <c r="I12">
+        <v>4.7260374719273202</v>
+      </c>
       <c r="J12">
-        <v>14</v>
+        <v>3.6444383232343198</v>
+      </c>
+      <c r="K12">
+        <v>3.54370589728489</v>
+      </c>
+      <c r="L12">
+        <v>3.7724703186153699</v>
+      </c>
+      <c r="M12">
+        <v>5.3250712864687699</v>
       </c>
       <c r="N12">
-        <v>14</v>
+        <v>3.8902491933941401</v>
+      </c>
+      <c r="O12">
+        <v>3.4336643945255201</v>
+      </c>
+      <c r="P12">
+        <v>3.7997523276968899</v>
+      </c>
+      <c r="Q12">
+        <v>5.9154212206270298</v>
+      </c>
+      <c r="R12" s="2">
+        <v>18.0071565379186</v>
+      </c>
+      <c r="S12" s="2">
+        <v>20.362923248602101</v>
+      </c>
+      <c r="T12" s="2">
+        <v>27.8562658759252</v>
+      </c>
+      <c r="U12" s="2">
+        <v>16.9300600310706</v>
+      </c>
+      <c r="V12" s="2">
+        <v>14.6166013530343</v>
+      </c>
+      <c r="W12">
+        <v>12.8505562939878</v>
+      </c>
+      <c r="X12">
+        <v>9.6088674179315703</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>16.581687496656301</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>-2.2965329022172098</v>
+      </c>
+      <c r="C13">
+        <v>-2.2998061961046901</v>
+      </c>
+      <c r="D13">
+        <v>-1.86455639333191</v>
+      </c>
+      <c r="E13">
+        <v>-1.35</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+      <c r="H13">
+        <v>-3.4</v>
+      </c>
+      <c r="I13">
+        <v>-1.45</v>
+      </c>
       <c r="J13">
-        <v>15</v>
+        <v>-1.05</v>
+      </c>
+      <c r="K13">
+        <v>-1</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="M13">
+        <v>-1.55</v>
+      </c>
+      <c r="N13">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="O13">
+        <v>-1</v>
+      </c>
+      <c r="P13">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="Q13">
+        <v>-1.95</v>
+      </c>
+      <c r="R13" s="2">
+        <v>-5.7</v>
+      </c>
+      <c r="S13" s="2">
+        <v>-6.3</v>
+      </c>
+      <c r="T13" s="2">
+        <v>-9.1</v>
+      </c>
+      <c r="U13" s="2">
+        <v>-5.65</v>
+      </c>
+      <c r="V13" s="2">
+        <v>-4.55</v>
+      </c>
+      <c r="W13">
+        <v>-3.9</v>
+      </c>
+      <c r="X13">
+        <v>-3.15</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>-5.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.1823351831264701</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.2832041307364599</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.9145190270277801</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.675</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.50000002980247</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.5000000167991201</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3.0166666666666702</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1.50000001117587</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1.7833333333333301</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1.575</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1.5000000392211199</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="R14" s="3">
+        <v>5.1428571428571397</v>
+      </c>
+      <c r="S14" s="3">
+        <v>5.1428571428571397</v>
+      </c>
+      <c r="T14" s="3">
+        <v>5.1428571428571397</v>
+      </c>
+      <c r="U14" s="3">
+        <v>5.0189844504599304</v>
+      </c>
+      <c r="V14" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="W14" s="1">
+        <v>3.35</v>
+      </c>
+      <c r="X14" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>4.5142857142857098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>3.4628128328695</v>
+      </c>
+      <c r="C15">
+        <v>3.4381769216234801</v>
+      </c>
+      <c r="D15">
+        <v>3.4401494860656499</v>
+      </c>
+      <c r="E15">
+        <v>3.43318283732378</v>
+      </c>
+      <c r="F15">
+        <v>3.4446931220180801</v>
+      </c>
+      <c r="G15">
+        <v>3.4406868879867401</v>
+      </c>
+      <c r="H15">
+        <v>3.45083741315189</v>
+      </c>
+      <c r="I15">
+        <v>3.5240406842294698</v>
+      </c>
+      <c r="J15">
+        <v>3.5558910541031699</v>
+      </c>
+      <c r="K15">
+        <v>3.5682186712285802</v>
+      </c>
+      <c r="L15">
+        <v>3.5882997169728701</v>
+      </c>
+      <c r="M15">
+        <v>3.58032946306772</v>
+      </c>
+      <c r="N15">
+        <v>3.5940001529710699</v>
+      </c>
+      <c r="O15">
+        <v>3.6029393661590201</v>
+      </c>
+      <c r="P15">
+        <v>3.5983153020416698</v>
+      </c>
+      <c r="Q15">
+        <v>3.59935819888452</v>
+      </c>
+      <c r="R15" s="2">
+        <v>3.5651882473686198</v>
+      </c>
+      <c r="S15" s="2">
+        <v>3.5420582374995302</v>
+      </c>
+      <c r="T15" s="2">
+        <v>3.5147569466900999</v>
+      </c>
+      <c r="U15" s="2">
+        <v>3.5187509343852299</v>
+      </c>
+      <c r="V15" s="2">
+        <v>3.5179718278557899</v>
+      </c>
+      <c r="W15">
+        <v>3.5166459730124502</v>
+      </c>
+      <c r="X15">
+        <v>3.5091415886484101</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>3.4875542113749201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.1485027746897001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.2998062093184002</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.7467785389645301</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.0000000596049401</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.00000003359823</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.0499999999999901</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1.00000002235175</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1.5500000091416499</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1.00000007844223</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1.1000000000000101</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="R16" s="3">
+        <v>5.46428571428571</v>
+      </c>
+      <c r="S16" s="3">
+        <v>5.46428571428571</v>
+      </c>
+      <c r="T16" s="3">
+        <v>5.46428571428571</v>
+      </c>
+      <c r="U16" s="3">
+        <v>5.4023493680871102</v>
+      </c>
+      <c r="V16" s="3">
+        <v>4.55</v>
+      </c>
+      <c r="W16" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="X16" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>2.1485027742798302</v>
+      </c>
+      <c r="C17">
+        <v>2.3817693348386402</v>
+      </c>
+      <c r="D17">
+        <v>1.74677853858622</v>
+      </c>
+      <c r="E17">
+        <v>2.60511542804795</v>
+      </c>
+      <c r="F17">
+        <v>2.3535588089676298</v>
+      </c>
+      <c r="G17">
+        <v>2.41625640879287</v>
+      </c>
+      <c r="H17">
+        <v>5.4845509670734502</v>
+      </c>
+      <c r="I17">
+        <v>4.7260374709942097</v>
+      </c>
+      <c r="J17">
+        <v>3.6444383226441501</v>
+      </c>
+      <c r="K17">
+        <v>3.54370589671207</v>
+      </c>
+      <c r="L17">
+        <v>3.7724703180013202</v>
+      </c>
+      <c r="M17">
+        <v>5.32507128228655</v>
+      </c>
+      <c r="N17">
+        <v>3.8902491927562899</v>
+      </c>
+      <c r="O17">
+        <v>3.4336643939703499</v>
+      </c>
+      <c r="P17">
+        <v>3.7997523270774698</v>
+      </c>
+      <c r="Q17">
+        <v>5.47312629058752</v>
+      </c>
+      <c r="R17" s="2">
+        <v>5.6292722684276502</v>
+      </c>
+      <c r="S17" s="2">
+        <v>5.7602441068371304</v>
+      </c>
+      <c r="T17" s="2">
+        <v>5.8199261667595099</v>
+      </c>
+      <c r="U17" s="2">
+        <v>5.6325892105671898</v>
+      </c>
+      <c r="V17" s="2">
+        <v>5.6140021571160599</v>
+      </c>
+      <c r="W17">
+        <v>5.6141041336168902</v>
+      </c>
+      <c r="X17">
+        <v>5.4800660304987003</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>5.6163419971822099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.1485027997286101</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.2998061961046901</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.74677854008802</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.0000000596049401</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.00000003359823</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.0499999999999901</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1.00000002235175</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1.00000007844223</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1.1000000000000101</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="R18" s="3">
+        <v>5.46428571428571</v>
+      </c>
+      <c r="S18" s="3">
+        <v>5.46428571428571</v>
+      </c>
+      <c r="T18" s="3">
+        <v>5.46428571428571</v>
+      </c>
+      <c r="U18" s="3">
+        <v>5.4023493680871102</v>
+      </c>
+      <c r="V18" s="3">
+        <v>4.55</v>
+      </c>
+      <c r="W18" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="X18" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>2.2965329017948801</v>
+      </c>
+      <c r="C19">
+        <v>2.2998061956820801</v>
+      </c>
+      <c r="D19">
+        <v>1.86455639294502</v>
+      </c>
+      <c r="E19">
+        <v>1.34999999964585</v>
+      </c>
+      <c r="F19">
+        <v>0.99999999966048703</v>
+      </c>
+      <c r="G19">
+        <v>0.99999999966049402</v>
+      </c>
+      <c r="H19">
+        <v>3.3999999994505399</v>
+      </c>
+      <c r="I19">
+        <v>1.4499999996405</v>
+      </c>
+      <c r="J19">
+        <v>1.0499999996584</v>
+      </c>
+      <c r="K19">
+        <v>0.99999999966056297</v>
+      </c>
+      <c r="L19">
+        <v>1.0999999996562999</v>
+      </c>
+      <c r="M19">
+        <v>1.54999999963476</v>
+      </c>
+      <c r="N19">
+        <v>1.1499999996542201</v>
+      </c>
+      <c r="O19">
+        <v>0.99999999966057695</v>
+      </c>
+      <c r="P19">
+        <v>1.0999999996563099</v>
+      </c>
+      <c r="Q19">
+        <v>1.94999999960625</v>
+      </c>
+      <c r="R19" s="2">
+        <v>5.5042722652082201</v>
+      </c>
+      <c r="S19" s="2">
+        <v>5.53271012441017</v>
+      </c>
+      <c r="T19" s="2">
+        <v>5.5614459311074302</v>
+      </c>
+      <c r="U19" s="2">
+        <v>5.5075892144537999</v>
+      </c>
+      <c r="V19" s="2">
+        <v>4.5499999991782198</v>
+      </c>
+      <c r="W19">
+        <v>3.8999999993609902</v>
+      </c>
+      <c r="X19">
+        <v>3.1499999994860501</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>5.1499999987640299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1">
+        <v>11.77255493873</v>
+      </c>
+      <c r="C20" s="1">
+        <v>11.738931955177399</v>
+      </c>
+      <c r="D20" s="1">
+        <v>11.8618269909907</v>
+      </c>
+      <c r="E20" s="1">
+        <v>11.9416666666667</v>
+      </c>
+      <c r="F20" s="1">
+        <v>11.9999999947166</v>
+      </c>
+      <c r="G20" s="1">
+        <v>11.999999999062799</v>
+      </c>
+      <c r="H20" s="1">
+        <v>11.494444444444399</v>
+      </c>
+      <c r="I20" s="1">
+        <v>11.925000000000001</v>
+      </c>
+      <c r="J20" s="1">
+        <v>11.991666666666699</v>
+      </c>
+      <c r="K20" s="1">
+        <v>12</v>
+      </c>
+      <c r="L20" s="1">
+        <v>11.983333333333301</v>
+      </c>
+      <c r="M20" s="1">
+        <v>11.9055555548467</v>
+      </c>
+      <c r="N20" s="1">
+        <v>11.975</v>
+      </c>
+      <c r="O20" s="1">
+        <v>11.9999999975047</v>
+      </c>
+      <c r="P20" s="1">
+        <v>11.983333333333301</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>11.816666668529299</v>
+      </c>
+      <c r="R20" s="3">
+        <v>10.9285714285714</v>
+      </c>
+      <c r="S20" s="3">
+        <v>10.9285714285714</v>
+      </c>
+      <c r="T20" s="3">
+        <v>10.9285714285714</v>
+      </c>
+      <c r="U20" s="3">
+        <v>10.9492168773043</v>
+      </c>
+      <c r="V20" s="3">
+        <v>11.233333333333301</v>
+      </c>
+      <c r="W20" s="1">
+        <v>11.383333333333301</v>
+      </c>
+      <c r="X20" s="1">
+        <v>11.55</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>11.033333333333299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>11.3457290554823</v>
+      </c>
+      <c r="C21">
+        <v>11.3539410258972</v>
+      </c>
+      <c r="D21">
+        <v>11.3532835044085</v>
+      </c>
+      <c r="E21">
+        <v>11.355605720659501</v>
+      </c>
+      <c r="F21">
+        <v>11.351768959092199</v>
+      </c>
+      <c r="G21">
+        <v>11.353104370436199</v>
+      </c>
+      <c r="H21">
+        <v>11.393962367513099</v>
+      </c>
+      <c r="I21">
+        <v>11.325319771771399</v>
+      </c>
+      <c r="J21">
+        <v>11.314702981758201</v>
+      </c>
+      <c r="K21">
+        <v>11.3105937760484</v>
+      </c>
+      <c r="L21">
+        <v>11.3039000941409</v>
+      </c>
+      <c r="M21">
+        <v>11.33109868274</v>
+      </c>
+      <c r="N21">
+        <v>11.301999948812099</v>
+      </c>
+      <c r="O21">
+        <v>11.2990202110722</v>
+      </c>
+      <c r="P21">
+        <v>11.3005615657862</v>
+      </c>
+      <c r="Q21">
+        <v>11.3463595515107</v>
+      </c>
+      <c r="R21" s="2">
+        <v>11.414346495311401</v>
+      </c>
+      <c r="S21" s="2">
+        <v>11.5204882151937</v>
+      </c>
+      <c r="T21" s="2">
+        <v>11.639852334397199</v>
+      </c>
+      <c r="U21" s="2">
+        <v>11.428719949844499</v>
+      </c>
+      <c r="V21" s="2">
+        <v>11.391675697638799</v>
+      </c>
+      <c r="W21">
+        <v>11.3921006527254</v>
+      </c>
+      <c r="X21">
+        <v>11.3752751317814</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>11.4014249696598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Cost Comparison.xlsx
+++ b/Cost Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jl3455/Dropbox/Research/Bilevel Opt 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C5E85AA8-C9C3-E544-A94D-4165525187DB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA9D7CD-B2EA-124E-9305-B51FA9D6FB1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="37520" windowHeight="23540" xr2:uid="{C66D5E38-E049-A343-B202-C79990462111}"/>
+    <workbookView xWindow="38440" yWindow="460" windowWidth="25560" windowHeight="15540" xr2:uid="{C66D5E38-E049-A343-B202-C79990462111}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>import 2</t>
   </si>
   <si>
-    <t>279/126</t>
-  </si>
-  <si>
     <t>Rup1</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>Rdn2</t>
+  </si>
+  <si>
+    <t>282/105</t>
   </si>
 </sst>
 </file>
@@ -159,6 +159,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -255,6 +256,15 @@
               <a:rPr lang="en-US"/>
               <a:t>Total System Cost</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>TS+DS</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -339,10 +349,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6925</c:v>
+                  <c:v>6961</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6760</c:v>
+                  <c:v>6738</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6831</c:v>
@@ -563,7 +573,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Distribution System Cost</a:t>
+              <a:t>DS Cost</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -641,7 +651,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-3587</c:v>
+                  <c:v>-3608</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-3440</c:v>
@@ -702,10 +712,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -780,7 +787,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -2292,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4993F1E-DE36-4745-9E3E-8C5863639460}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2347,10 +2354,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>6925</v>
+        <v>6961</v>
       </c>
       <c r="C2">
-        <v>6760</v>
+        <v>6738</v>
       </c>
       <c r="D2">
         <v>6831</v>
@@ -2370,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-3587</v>
+        <v>-3608</v>
       </c>
       <c r="C3">
         <v>-3440</v>
@@ -2396,7 +2403,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -3281,22 +3288,22 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Cost Comparison.xlsx
+++ b/Cost Comparison.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jl3455/Dropbox/Research/Bilevel Opt 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA9D7CD-B2EA-124E-9305-B51FA9D6FB1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75B1319-8DB6-DC4D-B031-910A1ED3B064}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38440" yWindow="460" windowWidth="25560" windowHeight="15540" xr2:uid="{C66D5E38-E049-A343-B202-C79990462111}"/>
+    <workbookView minimized="1" xWindow="38400" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{C66D5E38-E049-A343-B202-C79990462111}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>max wind</t>
   </si>
@@ -129,6 +130,9 @@
     <t>import 2</t>
   </si>
   <si>
+    <t>279/126</t>
+  </si>
+  <si>
     <t>Rup1</t>
   </si>
   <si>
@@ -141,7 +145,25 @@
     <t>Rdn2</t>
   </si>
   <si>
-    <t>282/105</t>
+    <t>366/187</t>
+  </si>
+  <si>
+    <t>340/131</t>
+  </si>
+  <si>
+    <t>326/180</t>
+  </si>
+  <si>
+    <t>Traditional With Network 3ds</t>
+  </si>
+  <si>
+    <t>Bilevel 3d</t>
+  </si>
+  <si>
+    <t>Q1, why the MG cost decrease in bilevel while increase in traditional</t>
+  </si>
+  <si>
+    <t>Q2. why the total cost increase with more DS</t>
   </si>
 </sst>
 </file>
@@ -196,11 +218,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,7 +372,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6961</c:v>
+                  <c:v>6925</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6738</c:v>
@@ -651,7 +674,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-3608</c:v>
+                  <c:v>-3587</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-3440</c:v>
@@ -665,6 +688,622 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C513-A449-AB0E-BFC708FE6116}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="289238608"/>
+        <c:axId val="288920752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="289238608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288920752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="288920752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289238608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total System Cost</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>TS+DS</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35501156601857248"/>
+          <c:y val="4.2272338710021957E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1180474933270167E-2"/>
+          <c:y val="0.2168577461873101"/>
+          <c:w val="0.90881952506672981"/>
+          <c:h val="0.69337921986424345"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34:$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Bilevel 3d</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Traditional With Network 3ds</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>11800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68DD-9941-8A24-53993C38FA9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="290002384"/>
+        <c:axId val="288275632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="290002384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288275632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="288275632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="290002384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DS Cost</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34:$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Bilevel 3d</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Traditional With Network 3ds</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-3747.5810999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E88D-E749-B369-DEF360A7809C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -917,6 +1556,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1421,6 +2140,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1992,6 +3717,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>818400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>127895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028284</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>61052</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E60FA81-44C3-A642-A77D-9FAFA71602EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1047832</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>127894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1823869</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>143481</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8972F7DF-0609-AF40-881E-0BDEA4B72037}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2297,15 +4094,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4993F1E-DE36-4745-9E3E-8C5863639460}">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C31" sqref="A30:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
     <col min="4" max="4" width="36.83203125" customWidth="1"/>
     <col min="5" max="5" width="23.83203125" customWidth="1"/>
     <col min="8" max="8" width="25.33203125" customWidth="1"/>
@@ -2354,7 +4152,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>6961</v>
+        <v>6925</v>
       </c>
       <c r="C2">
         <v>6738</v>
@@ -2377,7 +4175,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-3608</v>
+        <v>-3587</v>
       </c>
       <c r="C3">
         <v>-3440</v>
@@ -2403,7 +4201,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -3288,22 +5086,217 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="4">
+        <v>11800</v>
+      </c>
+      <c r="C35">
+        <v>217</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>-3747.5810999999999</v>
+      </c>
+      <c r="C36">
+        <v>-3266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>11537</v>
+      </c>
+      <c r="C46">
+        <v>11297</v>
+      </c>
+      <c r="D46">
+        <v>11404</v>
+      </c>
+      <c r="E46">
+        <v>7049</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>918</v>
+      </c>
+      <c r="C47">
+        <v>1143</v>
+      </c>
+      <c r="D47">
+        <v>1235</v>
+      </c>
+      <c r="E47">
+        <v>-3602</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>2036</v>
+      </c>
+      <c r="C49">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>2.66</v>
+      </c>
+      <c r="D51">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52">
+        <v>63</v>
+      </c>
+      <c r="D52">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>63</v>
+      </c>
+      <c r="D53">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>14557</v>
+      </c>
+      <c r="C57">
+        <v>14124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>760</v>
+      </c>
+      <c r="C58">
+        <v>1382</v>
       </c>
     </row>
   </sheetData>
